--- a/Luban/ExcelConfig/Datas/localization_ability.xlsx
+++ b/Luban/ExcelConfig/Datas/localization_ability.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
@@ -111,6 +111,54 @@
   </si>
   <si>
     <t>kuaishe</t>
+  </si>
+  <si>
+    <t>怪物技能</t>
+  </si>
+  <si>
+    <t>guaiwujinneg</t>
+  </si>
+  <si>
+    <t>烈火刀法</t>
+  </si>
+  <si>
+    <t>liehuodaofa</t>
+  </si>
+  <si>
+    <t>屠戮刀法</t>
+  </si>
+  <si>
+    <t>tuludaofa</t>
+  </si>
+  <si>
+    <t>地波斩</t>
+  </si>
+  <si>
+    <t>dibozhan</t>
+  </si>
+  <si>
+    <t>跳劈</t>
+  </si>
+  <si>
+    <t>tiaopi</t>
+  </si>
+  <si>
+    <t>大蒜</t>
+  </si>
+  <si>
+    <t>dasuan</t>
+  </si>
+  <si>
+    <t>瘴气</t>
+  </si>
+  <si>
+    <t>zhangqi</t>
+  </si>
+  <si>
+    <t>哥布林巫医</t>
+  </si>
+  <si>
+    <t>混乱之箭</t>
   </si>
 </sst>
 </file>
@@ -732,7 +780,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -746,6 +794,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1065,12 +1116,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AQ24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G12" sqref="G12"/>
+      <selection pane="topRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1394,6 +1445,180 @@
         <v>24</v>
       </c>
     </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="2">
+        <v>10005</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="2">
+        <v>10006</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="2">
+        <v>10007</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="2">
+        <v>10008</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="2">
+        <v>10009</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="2">
+        <v>10010</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="2">
+        <v>10011</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="2">
+        <v>10012</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2">
+        <v>10013</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D1:E1"/>

--- a/Luban/ExcelConfig/Datas/localization_ability.xlsx
+++ b/Luban/ExcelConfig/Datas/localization_ability.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>alias</t>
   </si>
   <si>
@@ -47,9 +44,6 @@
     <t>##type</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -92,6 +86,12 @@
     <t>fdfasdfa</t>
   </si>
   <si>
+    <t>流星落</t>
+  </si>
+  <si>
+    <t>liuxingluo</t>
+  </si>
+  <si>
     <t>怪物横砍</t>
   </si>
   <si>
@@ -158,7 +158,13 @@
     <t>哥布林巫医</t>
   </si>
   <si>
+    <t>召唤士兵</t>
+  </si>
+  <si>
     <t>混乱之箭</t>
+  </si>
+  <si>
+    <t>大风车</t>
   </si>
 </sst>
 </file>
@@ -780,15 +786,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1116,515 +1116,486 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AQ24"/>
+  <dimension ref="A1:AP26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E20" sqref="E20"/>
+      <selection pane="topRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.58333333333333" customWidth="1"/>
-    <col min="2" max="2" width="6.41666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.4166666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="16.0833333333333" customWidth="1"/>
-    <col min="6" max="6" width="14.0833333333333" customWidth="1"/>
-    <col min="7" max="7" width="24.4166666666667" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="12.4166666666667" customWidth="1"/>
-    <col min="10" max="10" width="11.3333333333333" customWidth="1"/>
-    <col min="11" max="14" width="10.6666666666667" customWidth="1"/>
-    <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="16.0833333333333" customWidth="1"/>
-    <col min="17" max="17" width="16.1666666666667" customWidth="1"/>
-    <col min="18" max="18" width="14.0833333333333" customWidth="1"/>
-    <col min="19" max="19" width="5.08333333333333" customWidth="1"/>
-    <col min="20" max="20" width="9.83333333333333" customWidth="1"/>
-    <col min="21" max="21" width="9.5" customWidth="1"/>
-    <col min="22" max="22" width="8.66666666666667" customWidth="1"/>
-    <col min="23" max="23" width="8.08333333333333" customWidth="1"/>
-    <col min="24" max="25" width="10.9166666666667" customWidth="1"/>
-    <col min="26" max="26" width="11.4166666666667" customWidth="1"/>
-    <col min="27" max="27" width="15.9166666666667" customWidth="1"/>
-    <col min="28" max="28" width="13.8333333333333" customWidth="1"/>
-    <col min="29" max="29" width="15.8333333333333" customWidth="1"/>
-    <col min="30" max="30" width="11.0833333333333" customWidth="1"/>
-    <col min="31" max="34" width="5.08333333333333" customWidth="1"/>
-    <col min="35" max="35" width="9.83333333333333" customWidth="1"/>
-    <col min="36" max="36" width="8.75" customWidth="1"/>
-    <col min="37" max="37" width="11.3333333333333" customWidth="1"/>
-    <col min="38" max="38" width="9.83333333333333" customWidth="1"/>
-    <col min="39" max="39" width="9.25" customWidth="1"/>
-    <col min="40" max="40" width="11.8333333333333" customWidth="1"/>
-    <col min="41" max="41" width="9.41666666666667" customWidth="1"/>
-    <col min="42" max="42" width="13.5833333333333" customWidth="1"/>
-    <col min="43" max="43" width="6.66666666666667" customWidth="1"/>
+    <col min="2" max="2" width="13.4166666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="16.0833333333333" customWidth="1"/>
+    <col min="5" max="5" width="14.0833333333333" customWidth="1"/>
+    <col min="6" max="6" width="24.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="12.4166666666667" customWidth="1"/>
+    <col min="9" max="9" width="11.3333333333333" customWidth="1"/>
+    <col min="10" max="13" width="10.6666666666667" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="15" max="15" width="16.0833333333333" customWidth="1"/>
+    <col min="16" max="16" width="16.1666666666667" customWidth="1"/>
+    <col min="17" max="17" width="14.0833333333333" customWidth="1"/>
+    <col min="18" max="18" width="5.08333333333333" customWidth="1"/>
+    <col min="19" max="19" width="9.83333333333333" customWidth="1"/>
+    <col min="20" max="20" width="9.5" customWidth="1"/>
+    <col min="21" max="21" width="8.66666666666667" customWidth="1"/>
+    <col min="22" max="22" width="8.08333333333333" customWidth="1"/>
+    <col min="23" max="24" width="10.9166666666667" customWidth="1"/>
+    <col min="25" max="25" width="11.4166666666667" customWidth="1"/>
+    <col min="26" max="26" width="15.9166666666667" customWidth="1"/>
+    <col min="27" max="27" width="13.8333333333333" customWidth="1"/>
+    <col min="28" max="28" width="15.8333333333333" customWidth="1"/>
+    <col min="29" max="29" width="11.0833333333333" customWidth="1"/>
+    <col min="30" max="33" width="5.08333333333333" customWidth="1"/>
+    <col min="34" max="34" width="9.83333333333333" customWidth="1"/>
+    <col min="35" max="35" width="8.75" customWidth="1"/>
+    <col min="36" max="36" width="11.3333333333333" customWidth="1"/>
+    <col min="37" max="37" width="9.83333333333333" customWidth="1"/>
+    <col min="38" max="38" width="9.25" customWidth="1"/>
+    <col min="39" max="39" width="11.8333333333333" customWidth="1"/>
+    <col min="40" max="40" width="9.41666666666667" customWidth="1"/>
+    <col min="41" max="41" width="13.5833333333333" customWidth="1"/>
+    <col min="42" max="42" width="6.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:43">
+    <row r="1" s="1" customFormat="1" spans="1:42">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:42">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:43">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:2">
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:1">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:41">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="2:42">
-      <c r="B7" s="2">
-        <v>10000</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="2">
-        <v>10001</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="G8" t="s">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="2">
-        <v>10002</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="10" spans="2:6">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E10" t="s">
         <v>23</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="2">
-        <v>10003</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="11" spans="2:6">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
         <v>23</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="2">
-        <v>10004</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="12" spans="2:6">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E12" t="s">
         <v>23</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="2">
-        <v>10005</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E13" t="s">
         <v>23</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="2">
-        <v>10006</v>
-      </c>
-      <c r="C13" s="7" t="s">
+    <row r="14" spans="2:6">
+      <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E14" t="s">
         <v>23</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="2">
-        <v>10007</v>
-      </c>
-      <c r="C14" s="7" t="s">
+    <row r="15" spans="2:6">
+      <c r="B15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D15" t="s">
         <v>33</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E15" t="s">
         <v>23</v>
       </c>
-      <c r="G14" t="s">
+      <c r="F15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="2">
-        <v>10008</v>
-      </c>
-      <c r="C15" s="7" t="s">
+    <row r="16" spans="2:6">
+      <c r="B16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D16" t="s">
         <v>35</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E16" t="s">
         <v>23</v>
       </c>
-      <c r="G15" t="s">
+      <c r="F16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="2">
-        <v>10009</v>
-      </c>
-      <c r="C16" s="7" t="s">
+    <row r="17" spans="2:6">
+      <c r="B17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D17" t="s">
         <v>37</v>
       </c>
-      <c r="F16" t="s">
+      <c r="E17" t="s">
         <v>23</v>
       </c>
-      <c r="G16" t="s">
+      <c r="F17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="2">
-        <v>10010</v>
-      </c>
-      <c r="C17" s="7" t="s">
+    <row r="18" spans="2:6">
+      <c r="B18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D18" t="s">
         <v>39</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E18" t="s">
         <v>23</v>
       </c>
-      <c r="G17" t="s">
+      <c r="F18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="2">
-        <v>10011</v>
-      </c>
-      <c r="C18" s="7" t="s">
+    <row r="19" spans="2:6">
+      <c r="B19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D19" t="s">
         <v>41</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E19" t="s">
         <v>23</v>
       </c>
-      <c r="G18" t="s">
+      <c r="F19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="2">
-        <v>10012</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
         <v>42</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="2">
-        <v>10013</v>
-      </c>
-      <c r="C20" s="7" t="s">
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="C21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="7"/>
+    <row r="22" spans="2:3">
+      <c r="B22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
